--- a/src/main/webapp/upload/students.xlsx
+++ b/src/main/webapp/upload/students.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,13 +52,17 @@
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +85,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -95,12 +107,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -109,12 +136,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,48 +459,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968795E-A4B8-4D5D-930F-76718971047D}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{CCE84083-3BF5-4D38-815A-B328462A5D86}">
+      <formula1>"软件学院,信工学院"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B47E5C01-DC90-4586-BD73-D1A113C0333A}">
+      <formula1>"软件工程,网络工程,物联网工程,数字媒体技术,计算机科学与技术,通信工程"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/webapp/upload/students.xlsx
+++ b/src/main/webapp/upload/students.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,6 +55,155 @@
   </si>
   <si>
     <t>学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20142018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4218XX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件学院</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>校内</t>
+  </si>
+  <si>
+    <t>学生2</t>
+  </si>
+  <si>
+    <r>
+      <t>20142019XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14219XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>学生3</t>
+  </si>
+  <si>
+    <r>
+      <t>20142020XXXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14220XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>校外</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>信工学院</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>网络工程</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +294,10 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,9 +612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968795E-A4B8-4D5D-930F-76718971047D}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -476,7 +631,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -499,17 +654,83 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{CCE84083-3BF5-4D38-815A-B328462A5D86}">
       <formula1>"软件学院,信工学院"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B47E5C01-DC90-4586-BD73-D1A113C0333A}">
       <formula1>"软件工程,网络工程,物联网工程,数字媒体技术,计算机科学与技术,通信工程"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{AD1602C8-709D-4A50-979E-F31E9948C9B2}">
+      <formula1>"校内,校外,其他"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
